--- a/docs/odh/shr-core-ActionStatement-model.xlsx
+++ b/docs/odh/shr-core-ActionStatement-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="78">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-ActionStatement-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-ActionStatement-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +189,7 @@
     <t>shr-core-ActionStatement-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +199,7 @@
     <t>shr-core-ActionStatement-model.subjectOfRecord[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchSubject-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Specimen-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ResearchSubject-model]]}
 </t>
   </si>
   <si>
@@ -217,7 +213,7 @@
     <t>shr-core-ActionStatement-model.careContext[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EpisodeOfCare-model]]}
 </t>
   </si>
   <si>
@@ -241,25 +237,31 @@
     <t>shr-core-ActionStatement-model.reasonCode</t>
   </si>
   <si>
-    <t>The justification, as a code.</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The explanation or justification for the current item or action, as a code.</t>
+  </si>
+  <si>
+    <t>The explanation or justification for the current item or action, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0566251
 </t>
   </si>
   <si>
-    <t>shr-core-ActionStatement-model.reasonReference[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+    <t>shr-core-ActionStatement-model.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
 </t>
   </si>
   <si>
     <t>The justification, as reference to a condition or observation.</t>
+  </si>
+  <si>
+    <t>shr-core-ActionStatement-model.basedOn</t>
+  </si>
+  <si>
+    <t>The proposal, order, or plan that is partly or wholly fulfilled by this item.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -820,7 +822,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -852,7 +854,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -875,13 +877,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -932,7 +934,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -949,7 +951,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -972,13 +974,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1029,7 +1031,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1046,7 +1048,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1072,10 +1074,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1126,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1143,7 +1145,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1166,13 +1168,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1223,7 +1225,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1240,7 +1242,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1263,13 +1265,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1320,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1337,7 +1339,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1360,13 +1362,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1417,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1434,7 +1436,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1457,13 +1459,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1499,7 +1501,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1514,7 +1516,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1531,7 +1533,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1557,10 +1559,10 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1596,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1611,7 +1613,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1628,7 +1630,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1651,13 +1653,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1708,7 +1710,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1723,8 +1725,105 @@
         <v>36</v>
       </c>
     </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI13">
+  <autoFilter ref="A1:AI14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1734,7 +1833,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
